--- a/BOND excel file.xlsx
+++ b/BOND excel file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Financials\ITR Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08D45EC-BB71-42D1-95F3-798F2A0D04E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A45372-D7D3-4927-89C2-97BE16CEC568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{14C9EA08-F2AA-4D1E-99F3-291B65D83B62}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t xml:space="preserve">Bond Name </t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>Bond Interest TDS Section: 10(15)</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>Given for 2023-2024</t>
   </si>
 </sst>
 </file>
@@ -297,7 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -349,6 +355,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -667,13 +676,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4174D5B8-D5B0-4F6C-AD17-9960F46A390C}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.33203125" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="46.21875" style="11" customWidth="1"/>
     <col min="2" max="5" width="36.33203125" style="1"/>
     <col min="6" max="6" width="36.33203125" style="4"/>
     <col min="7" max="16384" width="36.33203125" style="1"/>
@@ -748,6 +757,9 @@
         <f>G3*12</f>
         <v>5554.5</v>
       </c>
+      <c r="I3" s="18">
+        <v>45270</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
@@ -776,6 +788,9 @@
         <f t="shared" ref="H4:H21" si="1">G4*12</f>
         <v>8211</v>
       </c>
+      <c r="I4" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
@@ -804,6 +819,9 @@
         <f t="shared" si="1"/>
         <v>5602.8</v>
       </c>
+      <c r="I5" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
@@ -888,6 +906,9 @@
         <f t="shared" si="1"/>
         <v>24541</v>
       </c>
+      <c r="I8" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
@@ -1008,6 +1029,10 @@
       <c r="F14" s="13">
         <f xml:space="preserve"> SUM(F3:F12)</f>
         <v>1038600</v>
+      </c>
+      <c r="H14" s="12">
+        <f>SUM(H3:H12)</f>
+        <v>94967.8</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1015,7 +1040,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>9</v>
       </c>
@@ -1043,7 +1068,7 @@
         <v>3139.5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>11</v>
       </c>
@@ -1071,7 +1096,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>14</v>
       </c>
@@ -1099,7 +1124,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>33</v>
       </c>
@@ -1126,8 +1151,11 @@
         <f t="shared" si="1"/>
         <v>2100</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>36</v>
       </c>
@@ -1154,8 +1182,11 @@
         <f t="shared" si="1"/>
         <v>28800</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I21" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E23" s="12" t="s">
         <v>40</v>
       </c>

--- a/BOND excel file.xlsx
+++ b/BOND excel file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Financials\ITR Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A45372-D7D3-4927-89C2-97BE16CEC568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFB409B-E113-4004-8648-E26E7A0A0F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{14C9EA08-F2AA-4D1E-99F3-291B65D83B62}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t xml:space="preserve">Bond Name </t>
   </si>
@@ -303,7 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -314,9 +314,6 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -332,16 +329,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -355,9 +349,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -676,77 +667,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4174D5B8-D5B0-4F6C-AD17-9960F46A390C}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.33203125" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.21875" style="11" customWidth="1"/>
-    <col min="2" max="5" width="36.33203125" style="1"/>
-    <col min="6" max="6" width="36.33203125" style="4"/>
-    <col min="7" max="16384" width="36.33203125" style="1"/>
+    <col min="1" max="1" width="46.21875" style="9" customWidth="1"/>
+    <col min="2" max="16384" width="36.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="16"/>
-    </row>
-    <row r="2" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="14"/>
+    </row>
+    <row r="2" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>49607</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="2">
         <v>8.0500000000000002E-2</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="1">
         <v>69000</v>
       </c>
       <c r="G3" s="1">
@@ -757,27 +746,27 @@
         <f>G3*12</f>
         <v>5554.5</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="11">
         <v>45270</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>51454</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="2">
         <v>8.0500000000000002E-2</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="1">
         <v>102000</v>
       </c>
       <c r="G4" s="1">
@@ -793,22 +782,22 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>54010</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="2">
         <v>8.0500000000000002E-2</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="1">
         <v>69600</v>
       </c>
       <c r="G5" s="1">
@@ -824,22 +813,22 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>45926</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="3">
         <v>0.1</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="1">
         <v>10000</v>
       </c>
       <c r="G6" s="1">
@@ -852,7 +841,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -861,13 +850,13 @@
       <c r="C7" s="1">
         <v>2027</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="2">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="1">
         <v>100000</v>
       </c>
       <c r="G7" s="1">
@@ -878,24 +867,27 @@
         <f t="shared" si="1"/>
         <v>7750</v>
       </c>
+      <c r="I7" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="2">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>253000</v>
       </c>
       <c r="G8" s="1">
@@ -911,22 +903,22 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="2">
         <v>9.6699999999999994E-2</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="1">
         <v>105000</v>
       </c>
       <c r="G9" s="1">
@@ -937,24 +929,27 @@
         <f t="shared" si="1"/>
         <v>10153.5</v>
       </c>
+      <c r="I9" s="11">
+        <v>45272</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="2">
         <v>9.35E-2</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="1">
         <v>130000</v>
       </c>
       <c r="G10" s="1">
@@ -965,24 +960,27 @@
         <f t="shared" si="1"/>
         <v>12155</v>
       </c>
+      <c r="I10" s="11">
+        <v>45272</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="3">
         <v>0.1</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="1">
         <v>100000</v>
       </c>
       <c r="G11" s="1">
@@ -993,24 +991,27 @@
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
+      <c r="I11" s="11">
+        <v>45272</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>48837</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="3">
         <v>0.1</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="1">
         <v>100000</v>
       </c>
       <c r="G12" s="1">
@@ -1021,42 +1022,45 @@
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="12" t="s">
+      <c r="I12" s="11">
+        <v>45272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="10">
         <f xml:space="preserve"> SUM(F3:F12)</f>
         <v>1038600</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="10">
         <f>SUM(H3:H12)</f>
         <v>94967.8</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>51454</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="2">
         <v>8.0500000000000002E-2</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="1">
         <v>39000</v>
       </c>
       <c r="G17" s="1">
@@ -1069,22 +1073,22 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>54010</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="2">
         <v>8.0500000000000002E-2</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="1">
         <v>4000</v>
       </c>
       <c r="G18" s="1">
@@ -1097,22 +1101,22 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>45926</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="3">
         <v>0.1</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="1">
         <v>10000</v>
       </c>
       <c r="G19" s="1">
@@ -1125,22 +1129,22 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="2">
         <v>0.105</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="1">
         <v>20000</v>
       </c>
       <c r="G20" s="1">
@@ -1156,22 +1160,22 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="2">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="1">
         <v>300000</v>
       </c>
       <c r="G21" s="1">
@@ -1186,13 +1190,17 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="12" t="s">
+    <row r="23" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="10">
         <f>SUM(F17:F21)</f>
         <v>373000</v>
+      </c>
+      <c r="H23" s="10">
+        <f>SUM(H17:H21)</f>
+        <v>35361.5</v>
       </c>
     </row>
   </sheetData>
